--- a/notes/WGestureInputs_2018.xlsx
+++ b/notes/WGestureInputs_2018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup_files\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33662E46-DEDC-499F-9CBD-31A8E726D17A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CDF506-0C42-4866-809B-18FF67D8F9B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8370" windowHeight="12135" xr2:uid="{D3D51436-16A6-43E4-9CFB-3949B3413198}"/>
   </bookViews>
@@ -387,10 +387,6 @@
     <t>优词</t>
   </si>
   <si>
-    <t>◑←↓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>◑→↑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,6 +437,10 @@
   </si>
   <si>
     <t>◑↑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◑↓→◐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,7 +1111,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1151,7 @@
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2"/>
       <c r="K2" s="2"/>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>64</v>
@@ -1417,13 +1417,13 @@
     </row>
     <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
         <v>72</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>73</v>
@@ -1456,7 +1456,7 @@
         <v>74</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>75</v>
@@ -1467,7 +1467,7 @@
         <v>76</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>77</v>
@@ -1485,7 +1485,7 @@
         <v>78</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>37</v>
